--- a/Guia_Api_Facturas_Generix_RCI.xlsx
+++ b/Guia_Api_Facturas_Generix_RCI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/icastro_generixgroup_com/Documents/Documentos/GitHub/RCI_Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE913B62-F53C-439E-B611-DBA4645D5EF2}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C70D18C2-E4FF-40B8-AA67-BFB0C136093F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22428" windowHeight="14016" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14685" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="616">
   <si>
     <t>JSON</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Telephone</t>
   </si>
   <si>
-    <t>TeleFax</t>
-  </si>
-  <si>
     <t>WebAddress</t>
   </si>
   <si>
@@ -344,9 +341,6 @@
     <t>DiscountsAndRebates</t>
   </si>
   <si>
-    <t>DiscontReason</t>
-  </si>
-  <si>
     <t>Charges</t>
   </si>
   <si>
@@ -495,9 +489,6 @@
   </si>
   <si>
     <t>Receptor. Datos básicos del fichero. Son comunes a la factura o facturas que se incluyen.</t>
-  </si>
-  <si>
-    <t>Factura.</t>
   </si>
   <si>
     <t>Cabecera de factura. Para cada una de las facturas que
@@ -624,9 +615,6 @@
     <t>Código Postal asignado por Correos.</t>
   </si>
   <si>
-    <t>PostCodeType string positions: 5 pattern: [0-9]*</t>
-  </si>
-  <si>
     <t>Población. Correspondiente al C.P.</t>
   </si>
   <si>
@@ -652,9 +640,6 @@
   </si>
   <si>
     <t>TextMax15Type string positions: 0-15</t>
-  </si>
-  <si>
-    <t>Fax. Número de fax completo con prefijos del país.</t>
   </si>
   <si>
     <t>Página web. URL de la dirección de Internet.</t>
@@ -841,15 +826,7 @@
     <t>Tipo impositivo. Téngase en cuenta que no siempre son porcentajes. La legislación del impuesto correspondiente permitirá identificar las unidades y dimensiones del tipo impositivo.</t>
   </si>
   <si>
-    <t>DoubleUpToEight DecimalType double: -?[0-
-9]+(\.[0-
-9]{1,8})?</t>
-  </si>
-  <si>
     <t>Base imponible. La legislación del impuesto correspondiente determina cómo se calcula la base imponible.</t>
-  </si>
-  <si>
-    <t>DoubleUpToEight DecimalType double: -?[0-9]+(\.[0-9]{1,8})?</t>
   </si>
   <si>
     <t>Cuota. La legislación del impuesto correspondiente determina cómo se calcula la cuota.</t>
@@ -878,10 +855,6 @@
   </si>
   <si>
     <t>Importe a descontar sobre el TIB.</t>
-  </si>
-  <si>
-    <t>DoubleUpToEight DecimalType double: -?[0-9]+(\.[0-
-9]{1,8})?</t>
   </si>
   <si>
     <t>Cargos sobre el Total Importe Bruto. Habrá tantos bloques de campos GeneralSurcharges como clases de cargos/recargos se apliquen a nivel de factura.</t>
@@ -999,12 +972,6 @@
     <t>TextMax2500Type string : 0- 2500</t>
   </si>
   <si>
-    <t>DoubleFourDecimal Type double: [0-9][0-9]*\.[0- 9]{4}</t>
-  </si>
-  <si>
-    <t>DoubleSixDecimalT ype double : [0- 9][0-9]*\.[0-9]{6}|-[0-9][0-9]*\.[0-9]{6}</t>
-  </si>
-  <si>
     <t>Cargos.</t>
   </si>
   <si>
@@ -1756,9 +1723,6 @@
     <t>BICType string positions: 11</t>
   </si>
   <si>
-    <t>PaymentReconciliationReferenc e</t>
-  </si>
-  <si>
     <t>Referencia expresa del pago. Dato que precisa el Emisor para conciliar los pagos con cada factura.</t>
   </si>
   <si>
@@ -1869,6 +1833,87 @@
   </si>
   <si>
     <t>Tipo de factura</t>
+  </si>
+  <si>
+    <t>Array of InvoiceType</t>
+  </si>
+  <si>
+    <t>Array of InvoicesType</t>
+  </si>
+  <si>
+    <t>Objeto Factura.</t>
+  </si>
+  <si>
+    <t>Array de Facturas.</t>
+  </si>
+  <si>
+    <t>Objeto Factura con Parties e Invoice dentro.</t>
+  </si>
+  <si>
+    <t>Objeto Factura con los datos de las facturas.</t>
+  </si>
+  <si>
+    <t>AdditionalAddress</t>
+  </si>
+  <si>
+    <t>Segunda Línea de dirección.</t>
+  </si>
+  <si>
+    <t>1.4.2.3.6.</t>
+  </si>
+  <si>
+    <t>2.2.8.2.2</t>
+  </si>
+  <si>
+    <t>OrigenEmision</t>
+  </si>
+  <si>
+    <t>Origen de la factura</t>
+  </si>
+  <si>
+    <t>2.1.1.3.3.6.</t>
+  </si>
+  <si>
+    <t>2.1.2.3.3.6.</t>
+  </si>
+  <si>
+    <t>Telephone2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teléfono Adicional. Segundo número de teléfono. Antiguo "Telefax" </t>
+  </si>
+  <si>
+    <t>2.1.2.4.2.6.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.4.6.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliationReference</t>
+  </si>
+  <si>
+    <t>DoubleTwoDecimalType double: [0-9][0-9]*\.[0- 9]{2}|-[0-9][0-9]*\.[0-9]{2}</t>
+  </si>
+  <si>
+    <t>DoubleSixDecimalType double : [0- 9][0-9]*\.[0-9]{6}|-[0-9][0-9]*\.[0-9]{6}</t>
+  </si>
+  <si>
+    <t>DoubleFourDecimalType double: [0-9][0-9]*\.[0- 9]{4}</t>
+  </si>
+  <si>
+    <t>DoubleUpToEightDecimalType double: -?[0-9]+(\.[0-9]{1,8})?</t>
+  </si>
+  <si>
+    <t>TaxesOutputsType</t>
+  </si>
+  <si>
+    <t>Array de Facturas con las Partys.</t>
+  </si>
+  <si>
+    <t>Objeto Facturas</t>
+  </si>
+  <si>
+    <t>PostCodeType string positions: 10 pattern: [0-9]*</t>
   </si>
 </sst>
 </file>
@@ -2024,7 +2069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2185,7 +2230,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2219,9 +2263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>403685</xdr:colOff>
+      <xdr:colOff>399875</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>393472</xdr:rowOff>
+      <xdr:rowOff>397282</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2275,9 +2319,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>222529</xdr:colOff>
+      <xdr:colOff>213004</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>384845</xdr:rowOff>
+      <xdr:rowOff>400085</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2331,9 +2375,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>196650</xdr:colOff>
+      <xdr:colOff>206175</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>376219</xdr:rowOff>
+      <xdr:rowOff>360979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2749,10 +2793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -2784,22 +2828,22 @@
     <row r="3" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>126</v>
       </c>
       <c r="I3" s="28"/>
     </row>
@@ -2810,413 +2854,433 @@
         <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
       <c r="B5" s="54" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C5" s="54" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="56" t="s">
         <v>130</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="15" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="15" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="48" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="15" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="B9" s="15" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="G9" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="15" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="53"/>
       <c r="B11" s="54" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="15" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>129</v>
+        <v>145</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="15" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="15" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="15" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>153</v>
+        <v>592</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" s="29"/>
-    </row>
-    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>55</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C17" s="15"/>
       <c r="D17" s="17" t="s">
-        <v>155</v>
+        <v>594</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="29"/>
-    </row>
-    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="15" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="16"/>
+        <v>127</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>151</v>
+      </c>
       <c r="H18" s="29"/>
     </row>
     <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="15" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="15" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>161</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G20" s="16"/>
       <c r="H20" s="29"/>
     </row>
     <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="15" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
+      <c r="B24" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="29"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="29"/>
@@ -3240,10 +3304,18 @@
       <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D28" s="32"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D29" s="32"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D30" s="32"/>
@@ -3256,6 +3328,12 @@
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="32"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="32"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3273,10 +3351,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4BC373-9472-45A7-8E38-AC686175D042}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView showGridLines="0" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3317,7 +3395,7 @@
     <row r="3" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
@@ -3332,53 +3410,53 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -3398,25 +3476,25 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="E7" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="17"/>
@@ -3427,23 +3505,23 @@
     <row r="8" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="17"/>
@@ -3454,7 +3532,7 @@
     <row r="9" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>4</v>
@@ -3474,53 +3552,53 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="E10" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="G10" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="H10" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>5</v>
@@ -3535,53 +3613,53 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="E13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="G13" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="H13" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>6</v>
@@ -3596,884 +3674,906 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="E16" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="H16" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="15" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="15" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="15" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="15" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="15" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="15" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="15" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="15" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="15" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="15" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="15" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="15" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>23</v>
+        <v>595</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>193</v>
+        <v>596</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>196</v>
+        <v>23</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="15" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>183</v>
+        <v>24</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="15" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="15" t="s">
-        <v>381</v>
+        <v>597</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>200</v>
+        <v>26</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>194</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>201</v>
+        <v>127</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>202</v>
+        <v>27</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>203</v>
+        <v>139</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="15" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>205</v>
+        <v>373</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>604</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="15" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="15" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G43" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="49"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="H43" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="49"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>211</v>
+      <c r="E47" s="17"/>
+      <c r="F47" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="15" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="15" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="15" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>217</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E50" s="14"/>
       <c r="F50" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="15" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="E51" s="24"/>
+        <v>211</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>212</v>
+      </c>
       <c r="F51" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="15" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>217</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="E52" s="24"/>
       <c r="F52" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="15" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="E53" s="24"/>
+        <v>211</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>212</v>
+      </c>
       <c r="F53" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="15" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>217</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E54" s="24"/>
       <c r="F54" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="15" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="E55" s="14"/>
+        <v>211</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>212</v>
+      </c>
       <c r="F55" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>222</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4487,10 +4587,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B13C99-BA63-4783-81FE-9F858A27BFD2}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4528,10 +4628,10 @@
     <row r="3" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="4"/>
@@ -4543,1700 +4643,1810 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" customFormat="1" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="E11" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="G11" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="H11" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="20" t="s">
-        <v>395</v>
+        <v>341</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="20" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="20" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="48" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="20" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="48" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="20" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="44" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="20" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="20" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="20" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="84" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="20" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="44" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="20" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="20" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
       <c r="B23" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" s="43" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="20" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="20" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="20" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="44" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="20" t="s">
-        <v>410</v>
+        <v>601</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="20" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="44" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G28" s="44" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="20" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>564</v>
+        <v>11</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>565</v>
+        <v>173</v>
       </c>
       <c r="E29" s="17"/>
-      <c r="F29" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>141</v>
+      <c r="F29" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>127</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="20" t="s">
-        <v>522</v>
+        <v>401</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="20" t="s">
-        <v>566</v>
+        <v>402</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" s="14"/>
+        <v>553</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>554</v>
+      </c>
+      <c r="E31" s="17"/>
       <c r="F31" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="20" t="s">
-        <v>567</v>
+        <v>512</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="20" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="20" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="20" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="20" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="20" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="20" t="s">
-        <v>523</v>
+        <v>560</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="H38" s="43" t="s">
-        <v>191</v>
+        <v>19</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="20" t="s">
-        <v>524</v>
+        <v>561</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="H39" s="43" t="s">
-        <v>179</v>
+        <v>20</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="20" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="20" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="G42" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="H42" s="43" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="20" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>199</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="20" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="44" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G44" s="44" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="20" t="s">
-        <v>574</v>
+        <v>518</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="44" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="20" t="s">
-        <v>575</v>
+        <v>606</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="44" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G46" s="44" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="20" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G47" s="44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H47" s="43" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="20" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G48" s="44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="20" t="s">
-        <v>578</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>32</v>
+        <v>564</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>603</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>208</v>
+        <v>604</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G49" s="44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="19"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D51" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>126</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" s="17"/>
+      <c r="F50" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H50" s="43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
-      <c r="B52" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>49</v>
+      <c r="B52" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" s="16"/>
+        <v>203</v>
+      </c>
+      <c r="E52" s="17"/>
       <c r="F52" s="44" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G52" s="44" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="G53" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="H53" s="43" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="G54" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="H54" s="43" t="s">
-        <v>171</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="19"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="21" t="s">
-        <v>415</v>
+        <v>342</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D55" s="43" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="E55" s="16"/>
       <c r="F55" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G55" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="21" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E56" s="16"/>
       <c r="F56" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G56" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="21" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D57" s="43" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="44" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G57" s="44" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="21" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D58" s="43" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E58" s="16"/>
       <c r="F58" s="44" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G58" s="44" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H58" s="43" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="21" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D59" s="43" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="44" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G59" s="44" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H59" s="43" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="21" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D60" s="43" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G60" s="44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H60" s="43" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="21" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="44" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G61" s="44" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="21" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D62" s="43" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="44" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G62" s="44" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H62" s="43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="21" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D63" s="43" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="44" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G63" s="44" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H63" s="43" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="21" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G64" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H64" s="43" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="21" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G65" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H65" s="43" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="E66" s="16"/>
-      <c r="F66" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="G66" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="H66" s="43" t="s">
-        <v>199</v>
+        <v>413</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="21" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>238</v>
+        <v>23</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>190</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="44" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G67" s="44" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H67" s="43" t="s">
-        <v>239</v>
+        <v>615</v>
       </c>
     </row>
     <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="21" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D68" s="43" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G68" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H68" s="43" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="21" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G69" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H69" s="43" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="21" t="s">
-        <v>430</v>
+        <v>602</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D70" s="43" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G70" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H70" s="43" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="21" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="43" t="s">
-        <v>192</v>
+        <v>47</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="44" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G71" s="44" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H71" s="43" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="21" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G72" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H72" s="43" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="21" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G73" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H73" s="43" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="21" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="E74" s="16"/>
       <c r="F74" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G74" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H74" s="43" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="21" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D75" s="43" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G75" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H75" s="43" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
-      <c r="B76" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D76" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="E76" s="17"/>
-      <c r="F76" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="G76" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="H76" s="43" t="s">
-        <v>201</v>
+      <c r="B76" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="E76" s="14"/>
+      <c r="F76" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
       <c r="B77" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="E77" s="17"/>
-      <c r="F77" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="G77" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="H77" s="43" t="s">
-        <v>203</v>
+        <v>423</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F77" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G77" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="21" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D78" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="E78" s="17"/>
+        <v>191</v>
+      </c>
+      <c r="E78" s="16"/>
       <c r="F78" s="44" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G78" s="44" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H78" s="43" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="21" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D79" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="E79" s="17"/>
+        <v>193</v>
+      </c>
+      <c r="E79" s="16"/>
       <c r="F79" s="44" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G79" s="44" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H79" s="43" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
-      <c r="B80" s="21" t="s">
-        <v>440</v>
+      <c r="B80" s="29" t="s">
+        <v>605</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="E80" s="17"/>
+        <v>232</v>
+      </c>
+      <c r="E80" s="16"/>
       <c r="F80" s="44" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G80" s="44" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H80" s="43" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="21" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G81" s="44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H81" s="43" t="s">
-        <v>209</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="16"/>
+      <c r="B82" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="E82" s="17"/>
+      <c r="F82" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G82" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H82" s="43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>604</v>
+      </c>
+      <c r="E83" s="17"/>
+      <c r="F83" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G83" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H83" s="43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="16"/>
+      <c r="B84" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E84" s="17"/>
+      <c r="F84" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G84" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H84" s="43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="16"/>
+      <c r="B85" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" s="17"/>
+      <c r="F85" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G85" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H85" s="43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="16"/>
+      <c r="B86" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="E86" s="17"/>
+      <c r="F86" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G86" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H86" s="43" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -6251,10 +6461,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25333C4E-FCEB-4BCB-A95F-5DF88E54B42A}">
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B100" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -6293,10 +6503,10 @@
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="50"/>
@@ -6307,2517 +6517,2581 @@
     <row r="4" spans="1:8" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>613</v>
+      </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="41"/>
-    </row>
-    <row r="7" spans="1:8" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="1:8" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="E8" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="H8" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>154</v>
+    </row>
+    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>52</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C10" s="15"/>
       <c r="D10" s="2" t="s">
-        <v>240</v>
+        <v>591</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>544</v>
+        <v>433</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>529</v>
+        <v>236</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>530</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
-        <v>545</v>
+        <v>434</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>531</v>
+        <v>238</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>552</v>
+        <v>533</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>534</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>553</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>535</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>58</v>
+        <v>543</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>249</v>
+        <v>524</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>59</v>
+        <v>544</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>251</v>
+        <v>526</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>555</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>537</v>
+        <v>244</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="15" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>556</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>539</v>
+        <v>246</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="15" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>156</v>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
-        <v>445</v>
+        <v>541</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>56</v>
+        <v>547</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>245</v>
+        <v>531</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="15" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="15" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="H31" s="38"/>
-    </row>
-    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="15" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>217</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E34" s="26"/>
       <c r="F34" s="26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
       <c r="B35" s="15" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>263</v>
+        <v>611</v>
       </c>
     </row>
     <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="15" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="37"/>
+      <c r="B41" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
       <c r="B42" s="15" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E42" s="26"/>
+        <v>258</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>212</v>
+      </c>
       <c r="F42" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="15" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="15" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="26" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
       <c r="B45" s="15" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="15" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="15" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="15" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="15" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="15" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="B51" s="15" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15"/>
       <c r="B52" s="15" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="B53" s="15" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>217</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="E53" s="26"/>
       <c r="F53" s="26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="15" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>217</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="E54" s="26"/>
       <c r="F54" s="26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="B55" s="15" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="B56" s="15" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="B57" s="15" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G57" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="35" customFormat="1" ht="36" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
       <c r="B58" s="15" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="I58" s="36"/>
-    </row>
-    <row r="59" spans="1:9" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="G59" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="H59" s="38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="35" customFormat="1" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="15" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E60" s="26"/>
+        <v>280</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>212</v>
+      </c>
       <c r="F60" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G61" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+      <c r="I60" s="36"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="37"/>
+      <c r="B61" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G61" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="H61" s="38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
       <c r="B62" s="15" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E62" s="26"/>
       <c r="F62" s="26" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="B63" s="15" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E63" s="24"/>
+        <v>283</v>
+      </c>
+      <c r="E63" s="26"/>
       <c r="F63" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
       <c r="B64" s="15" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E64" s="26"/>
       <c r="F64" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="15" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E65" s="26"/>
+        <v>285</v>
+      </c>
+      <c r="E65" s="24"/>
       <c r="F65" s="26" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="15" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E66" s="26"/>
       <c r="F66" s="26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
       <c r="B67" s="15" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E67" s="26"/>
       <c r="F67" s="26" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15"/>
       <c r="B68" s="15" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15"/>
       <c r="B69" s="15" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E69" s="26"/>
       <c r="F69" s="26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H69" s="16" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="36" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="15" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E70" s="26"/>
       <c r="F70" s="26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G70" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
       <c r="B71" s="15" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>217</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="E71" s="26"/>
       <c r="F71" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G71" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15"/>
       <c r="B72" s="15" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>217</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="E72" s="26"/>
       <c r="F72" s="26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="15" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E73" s="26"/>
+        <v>299</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>212</v>
+      </c>
       <c r="F73" s="26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="15" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E74" s="26"/>
+        <v>300</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>212</v>
+      </c>
       <c r="F74" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="15" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="E75" s="26"/>
       <c r="F75" s="26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G75" s="26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="15" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E76" s="26"/>
       <c r="F76" s="26" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G76" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="15" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E77" s="26"/>
       <c r="F77" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G77" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="15" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="E78" s="26"/>
       <c r="F78" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G78" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="15" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E79" s="26"/>
       <c r="F79" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="15" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="E80" s="26"/>
       <c r="F80" s="26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G80" s="26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="15" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="E81" s="26"/>
       <c r="F81" s="26" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G81" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
       <c r="B82" s="15" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E82" s="26"/>
       <c r="F82" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G82" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
       <c r="B83" s="15" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E83" s="26" t="s">
-        <v>217</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="E83" s="26"/>
       <c r="F83" s="26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
       <c r="B84" s="15" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="E84" s="26"/>
       <c r="F84" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G84" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H84" s="16"/>
-    </row>
-    <row r="85" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="H84" s="16" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
       <c r="B85" s="15" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E85" s="26"/>
+        <v>305</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>212</v>
+      </c>
       <c r="F85" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="108" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15"/>
       <c r="B86" s="15" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="E86" s="26"/>
       <c r="F86" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G86" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="15" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>217</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E87" s="26"/>
       <c r="F87" s="26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="15" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E88" s="26"/>
       <c r="F88" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G88" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="36" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="15" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G89" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="15" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E90" s="26"/>
       <c r="F90" s="26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G90" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="36" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="15" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G91" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="15" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="E92" s="26"/>
       <c r="F92" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G92" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="15" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E93" s="26"/>
+        <v>211</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>212</v>
+      </c>
       <c r="F93" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G93" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="15" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>251</v>
+        <v>307</v>
       </c>
       <c r="E94" s="26"/>
       <c r="F94" s="26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G94" s="26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
       <c r="B95" s="15" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="E95" s="26"/>
       <c r="F95" s="26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G95" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="37"/>
-      <c r="B96" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="C96" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="D96" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="G96" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="H96" s="38" t="s">
-        <v>163</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G96" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="15" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E97" s="26"/>
       <c r="F97" s="26" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G97" s="26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G98" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H98" s="16" t="s">
-        <v>246</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="37"/>
+      <c r="B98" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="G98" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="H98" s="38" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15"/>
       <c r="B99" s="15" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="E99" s="26"/>
       <c r="F99" s="26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G99" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15"/>
       <c r="B100" s="15" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="E100" s="26"/>
       <c r="F100" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G100" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15"/>
       <c r="B101" s="15" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="E101" s="26"/>
       <c r="F101" s="26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G101" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15"/>
       <c r="B102" s="15" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E102" s="26"/>
       <c r="F102" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G102" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15"/>
       <c r="B103" s="15" t="s">
-        <v>558</v>
+        <v>499</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>559</v>
+        <v>109</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>560</v>
+        <v>316</v>
       </c>
       <c r="E103" s="26"/>
       <c r="F103" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G103" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>561</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A104" s="15"/>
       <c r="B104" s="15" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>562</v>
+        <v>110</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>563</v>
+        <v>318</v>
       </c>
       <c r="E104" s="26"/>
       <c r="F104" s="26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G104" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="37"/>
-      <c r="B105" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="C105" s="37" t="s">
-        <v>579</v>
-      </c>
-      <c r="D105" s="40" t="s">
-        <v>580</v>
-      </c>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="G105" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="H105" s="38" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="15"/>
+      <c r="B105" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G105" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H105" s="16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15"/>
       <c r="B106" s="15" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>583</v>
+        <v>552</v>
       </c>
       <c r="E106" s="26"/>
       <c r="F106" s="26" t="s">
-        <v>584</v>
+        <v>138</v>
       </c>
       <c r="G106" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="H106" s="17" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="H106" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="37"/>
       <c r="B107" s="37" t="s">
-        <v>586</v>
+        <v>350</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>113</v>
+        <v>568</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>164</v>
+        <v>569</v>
       </c>
       <c r="E107" s="39"/>
       <c r="F107" s="39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G107" s="39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H107" s="38" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15"/>
       <c r="B108" s="15" t="s">
-        <v>587</v>
+        <v>502</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>114</v>
+        <v>571</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>330</v>
+        <v>572</v>
       </c>
       <c r="E108" s="26"/>
       <c r="F108" s="26" t="s">
-        <v>140</v>
+        <v>573</v>
       </c>
       <c r="G108" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="H108" s="16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="G109" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H109" s="16" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="H108" s="17" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="37"/>
+      <c r="B109" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E109" s="39"/>
+      <c r="F109" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="G109" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="H109" s="38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A110" s="15"/>
       <c r="B110" s="15" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E110" s="26"/>
       <c r="F110" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G110" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H110" s="16" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A111" s="15"/>
       <c r="B111" s="15" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E111" s="24"/>
+        <v>322</v>
+      </c>
+      <c r="E111" s="26"/>
       <c r="F111" s="26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G111" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H111" s="16" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A112" s="15"/>
       <c r="B112" s="15" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E112" s="26"/>
       <c r="F112" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H112" s="16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="15"/>
       <c r="B113" s="15" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E113" s="26"/>
+        <v>326</v>
+      </c>
+      <c r="E113" s="24"/>
       <c r="F113" s="26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G113" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H113" s="16" t="s">
-        <v>239</v>
+        <v>327</v>
       </c>
     </row>
     <row r="114" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="15"/>
       <c r="B114" s="15" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="E114" s="26"/>
       <c r="F114" s="26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G114" s="26" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="H114" s="16" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="37"/>
-      <c r="B115" s="37" t="s">
-        <v>594</v>
-      </c>
-      <c r="C115" s="37" t="s">
-        <v>596</v>
-      </c>
-      <c r="D115" s="40" t="s">
-        <v>597</v>
-      </c>
-      <c r="E115" s="39"/>
-      <c r="F115" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="G115" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="H115" s="38" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="15"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E115" s="26"/>
+      <c r="F115" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G115" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H115" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B116" s="15" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>599</v>
+        <v>331</v>
       </c>
       <c r="E116" s="26"/>
       <c r="F116" s="26" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G116" s="26" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C120" s="58"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="37"/>
+      <c r="B117" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="D117" s="40" t="s">
+        <v>586</v>
+      </c>
+      <c r="E117" s="39"/>
+      <c r="F117" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="G117" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="H117" s="38" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="15"/>
+      <c r="B118" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E118" s="26"/>
+      <c r="F118" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G118" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H118" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="15"/>
+      <c r="B119" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E119" s="26"/>
+      <c r="F119" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G119" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H119" s="16" t="s">
+        <v>332</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:H2"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8968,18 +9242,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9001,18 +9275,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Guia_Api_Facturas_Generix_RCI.xlsx
+++ b/Guia_Api_Facturas_Generix_RCI.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/icastro_generixgroup_com/Documents/Documentos/GitHub/RCI_Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="410" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42BF2666-F6E0-4B4E-A694-E4D25AF9DC47}"/>
+  <xr:revisionPtr revIDLastSave="687" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A683F7DC-63C3-4172-97EC-2DAEC55CFEC3}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-16470" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22428" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema General" sheetId="1" r:id="rId1"/>
     <sheet name="Grupo1" sheetId="3" r:id="rId2"/>
     <sheet name="Grupo 2.1" sheetId="4" r:id="rId3"/>
     <sheet name="Grupo 2.2" sheetId="5" r:id="rId4"/>
+    <sheet name="ENUMS" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="799">
   <si>
     <t>JSON</t>
   </si>
@@ -538,9 +539,6 @@
   </si>
   <si>
     <t>TaxIdentificationtype</t>
-  </si>
-  <si>
-    <t>Tipo de persona. Fisica (F) o Jurídica (J)</t>
   </si>
   <si>
     <t>PersonTypeCodeType string</t>
@@ -725,10 +723,6 @@
   </si>
   <si>
     <t>TextMax10Type string positions: 0-10</t>
-  </si>
-  <si>
-    <t>Tipo  rol.  Indica  la  función  de  un  Punto  Operacional  (P.O.) definido  como  Centro/Departamento.  Estas  funciones  son: "Receptor"  -  Centro  del  NIF  receptor  destinatario  de  la factura. "Pagador" - Centro del NIF receptor responsable de pagar la factura. "Comprador" - Centro del NIF receptor que emitió  el   pedido.  "Cobrador"  -  Centro  del  NIF  emisor responsable de gestionar el cobro. "Fiscal" - Centro del NIF receptor de las facturas, cuando un P.O. buzón es compartido por  varias  empresas  clientes  con  diferentes  NIF.s  y  es necesario diferenciar el receptor del mensaje (buzón común) del lugar donde debe depositarse (empresa destinataria).
-Algunos posibles valores serian: [01], [02], [03], [04]...</t>
   </si>
   <si>
     <t>RoleTypeCodeType string</t>
@@ -1631,9 +1625,6 @@
     <t>ReasonCodeType string</t>
   </si>
   <si>
-    <t>Descripción motivo. Descripción del motivo de rectificación y que se corresponde con cada código. p.ej. [Número de la factura], [Serie de la factura], [Fecha expedición], [Nombre y apellidos/Razón Social-Emisor]... Ver tabla de códigos y descripciones.</t>
-  </si>
-  <si>
     <t>ReasonDescriptionType string</t>
   </si>
   <si>
@@ -1914,13 +1905,571 @@
   </si>
   <si>
     <t>PaymentDetailsType</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Persona Física</t>
+  </si>
+  <si>
+    <t>Persona Jurídica</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Tipo de Persona</t>
+  </si>
+  <si>
+    <t>Tipo de Residencia</t>
+  </si>
+  <si>
+    <t>Extranjero</t>
+  </si>
+  <si>
+    <t>Residente (En España)</t>
+  </si>
+  <si>
+    <t>Residente en la Unión Europea (Excepto España)</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Clase</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Original rectificativa</t>
+  </si>
+  <si>
+    <t>Original recapitulativa</t>
+  </si>
+  <si>
+    <t>Coipa original</t>
+  </si>
+  <si>
+    <t>Copia rectificativa</t>
+  </si>
+  <si>
+    <t>Copia recapitulativa</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Unidades de medida</t>
+  </si>
+  <si>
+    <t>Unidades</t>
+  </si>
+  <si>
+    <t>Horas-HUR</t>
+  </si>
+  <si>
+    <t>Kilogramos-KGM</t>
+  </si>
+  <si>
+    <t>Litros-LTR</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Cajas-BX</t>
+  </si>
+  <si>
+    <t>Bandejas-DS</t>
+  </si>
+  <si>
+    <t>Barriles-BA</t>
+  </si>
+  <si>
+    <t>Bidones-JY</t>
+  </si>
+  <si>
+    <t>Bolsas-BG</t>
+  </si>
+  <si>
+    <t>Bombonas-CO</t>
+  </si>
+  <si>
+    <t>Botellas-BO</t>
+  </si>
+  <si>
+    <t>Botes-CI</t>
+  </si>
+  <si>
+    <t>Tetra Bricks</t>
+  </si>
+  <si>
+    <t>Centilitros-CLT</t>
+  </si>
+  <si>
+    <t>Centímetros-CMT</t>
+  </si>
+  <si>
+    <t>Cubos-BI</t>
+  </si>
+  <si>
+    <t>Docenas</t>
+  </si>
+  <si>
+    <t>Estuches-CS</t>
+  </si>
+  <si>
+    <t>Garrafas-DJ</t>
+  </si>
+  <si>
+    <t>Gramos-GRM</t>
+  </si>
+  <si>
+    <t>Kilómetros-KMT</t>
+  </si>
+  <si>
+    <t>Latas-CA</t>
+  </si>
+  <si>
+    <t>Manojos-BH</t>
+  </si>
+  <si>
+    <t>Metros-MTR</t>
+  </si>
+  <si>
+    <t>Milímetros-MMT</t>
+  </si>
+  <si>
+    <t>Paquetes-PK</t>
+  </si>
+  <si>
+    <t>Raciones</t>
+  </si>
+  <si>
+    <t>Rollos-RO</t>
+  </si>
+  <si>
+    <t>Sobres-EN</t>
+  </si>
+  <si>
+    <t>Tarrinas-TB</t>
+  </si>
+  <si>
+    <t>6-Packs</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Impuestos</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>IPSI</t>
+  </si>
+  <si>
+    <t>IGIC</t>
+  </si>
+  <si>
+    <t>IRPF</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>ITPAJD</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>IGTECM</t>
+  </si>
+  <si>
+    <t>IECDPCAC</t>
+  </si>
+  <si>
+    <t>IIIMAB</t>
+  </si>
+  <si>
+    <t>ICIO</t>
+  </si>
+  <si>
+    <t>IMVDN</t>
+  </si>
+  <si>
+    <t>IMSN</t>
+  </si>
+  <si>
+    <t>IMGSN</t>
+  </si>
+  <si>
+    <t>IMPN</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Al contado</t>
+  </si>
+  <si>
+    <t>Recibo Domiciliado</t>
+  </si>
+  <si>
+    <t>Recibo</t>
+  </si>
+  <si>
+    <t>Transferencia</t>
+  </si>
+  <si>
+    <t>Letra Aceptada</t>
+  </si>
+  <si>
+    <t>Crédito Documentario</t>
+  </si>
+  <si>
+    <t>Contrato Adjudicación</t>
+  </si>
+  <si>
+    <t>Letra de cambio</t>
+  </si>
+  <si>
+    <t>Pagaré a la Orden</t>
+  </si>
+  <si>
+    <t>Pagaré No a la Orden</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t>Reposición</t>
+  </si>
+  <si>
+    <t>Especiales</t>
+  </si>
+  <si>
+    <t>Compensación</t>
+  </si>
+  <si>
+    <t>Giro postal</t>
+  </si>
+  <si>
+    <t>Cheque conformado</t>
+  </si>
+  <si>
+    <t>Cheque bancario</t>
+  </si>
+  <si>
+    <t>Pago contra reembolso</t>
+  </si>
+  <si>
+    <t>Pago mediante tarjeta</t>
+  </si>
+  <si>
+    <t>Formas de pago</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Motivos de rectificación</t>
+  </si>
+  <si>
+    <t>Corrective (ReasonCode)</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Número de la factura</t>
+  </si>
+  <si>
+    <t>Serie de la factura</t>
+  </si>
+  <si>
+    <t>Fecha expedición</t>
+  </si>
+  <si>
+    <t>Nombre y apellidos/Razón Social-Emisor</t>
+  </si>
+  <si>
+    <t>Nombre y apellidos/Razón Social-Receptor</t>
+  </si>
+  <si>
+    <t>Identificación fiscal Emisor/obligado</t>
+  </si>
+  <si>
+    <t>Identificación fiscal Receptor</t>
+  </si>
+  <si>
+    <t>Domicilio Emisor/Obligado</t>
+  </si>
+  <si>
+    <t>Domicilio Receptor</t>
+  </si>
+  <si>
+    <t>Detalle Operación</t>
+  </si>
+  <si>
+    <t>Porcentaje impositivo a aplicar</t>
+  </si>
+  <si>
+    <t>Cuota tributaria a aplicar</t>
+  </si>
+  <si>
+    <t>Fecha/Periodo a aplicar</t>
+  </si>
+  <si>
+    <t>Clase de factura</t>
+  </si>
+  <si>
+    <t>Literales legales</t>
+  </si>
+  <si>
+    <t>Base imponible</t>
+  </si>
+  <si>
+    <t>Cálculo de cuotas repercutidas</t>
+  </si>
+  <si>
+    <t>Cálculo de cuotas retenidas</t>
+  </si>
+  <si>
+    <t>Base imponible modificada por devolución de envases / embalajes</t>
+  </si>
+  <si>
+    <t>Base imponible modificada por descuentos y bonificaciones</t>
+  </si>
+  <si>
+    <t>Base imponible modificada por resolución firme, judicial o administrativa</t>
+  </si>
+  <si>
+    <t>Base imponible modificada cuotas repercutidas no satisfechas. Auto de declaración de concurso</t>
+  </si>
+  <si>
+    <t>8.</t>
+  </si>
+  <si>
+    <t>Criterios de rectificación</t>
+  </si>
+  <si>
+    <t>Rectificación íntegra</t>
+  </si>
+  <si>
+    <t>Rectificación por descuento por volumen de operaciones durante un periodo</t>
+  </si>
+  <si>
+    <t>Autorizadas por la agencia tributaria</t>
+  </si>
+  <si>
+    <t>Rectificación por diferencias</t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t>Roles de centros administrativos</t>
+  </si>
+  <si>
+    <t>AdministrativeCentre (RoleTypeCode)</t>
+  </si>
+  <si>
+    <t>Con carácter general</t>
+  </si>
+  <si>
+    <t>Fiscal</t>
+  </si>
+  <si>
+    <t>Receptor</t>
+  </si>
+  <si>
+    <t>Pagador</t>
+  </si>
+  <si>
+    <t>Comprador</t>
+  </si>
+  <si>
+    <t>Cobrador</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>Receptor de pago</t>
+  </si>
+  <si>
+    <t>Receptor del cobro</t>
+  </si>
+  <si>
+    <t>Emisor</t>
+  </si>
+  <si>
+    <t>Si se trata de DIR3</t>
+  </si>
+  <si>
+    <t>Oficina Contable</t>
+  </si>
+  <si>
+    <t>Órgano Gestor</t>
+  </si>
+  <si>
+    <t>Unidad Tramitadora</t>
+  </si>
+  <si>
+    <t>Órgano Proponente</t>
+  </si>
+  <si>
+    <t>Tipo  rol.  Indica  la  función  de  un  Punto  Operacional  (P.O.) definido  como  Centro/Departamento.  Estas  funciones  son: "Receptor"  -  Centro  del  NIF  receptor  destinatario  de  la factura. "Pagador" - Centro del NIF receptor responsable de pagar la factura. "Comprador" - Centro del NIF receptor que emitió  el   pedido.  "Cobrador"  -  Centro  del  NIF  emisor responsable de gestionar el cobro. "Fiscal" - Centro del NIF receptor de las facturas, cuando un P.O. buzón es compartido por  varias  empresas  clientes  con  diferentes  NIF.s  y  es necesario diferenciar el receptor del mensaje (buzón común) del lugar donde debe depositarse (empresa destinataria).</t>
+  </si>
+  <si>
+    <t>Disponible la lista de códigos en la hoja ENUMS.</t>
+  </si>
+  <si>
+    <t>Tipo de persona. Fisica (F) o Jurídica (J).</t>
+  </si>
+  <si>
+    <t>Descripción motivo. Descripción del motivo de rectificación y que se corresponde con cada código. p.ej. [Número de la factura], [Serie de la factura], [Fecha expedición], [Nombre y apellidos/Razón Social-Emisor]...</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Factura Completa</t>
+  </si>
+  <si>
+    <t>Factura Simplificada</t>
+  </si>
+  <si>
+    <t>Código sin uso desde la entrada en vigor del RD 1789/2010</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>Tipo de Documento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1986,6 +2535,19 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="General Sans"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
       <name val="General Sans"/>
       <family val="3"/>
     </font>
@@ -2060,7 +2622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2197,6 +2759,31 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2339,22 +2926,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>43132</xdr:colOff>
+      <xdr:colOff>69011</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>86264</xdr:rowOff>
+      <xdr:rowOff>94890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>206175</xdr:colOff>
+      <xdr:colOff>209194</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>360979</xdr:rowOff>
+      <xdr:rowOff>396275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1">
+        <xdr:cNvPr id="3" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DA562D-13AD-46BC-AFC1-57BDAC9DD40F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C092597-98DB-4A74-B2F3-32D88429EC9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,8 +2960,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="43132" y="86264"/>
-          <a:ext cx="1309458" cy="289955"/>
+          <a:off x="69011" y="94890"/>
+          <a:ext cx="1283183" cy="301385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2431,6 +3018,62 @@
         <a:xfrm>
           <a:off x="86264" y="94890"/>
           <a:ext cx="1309458" cy="289955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>86264</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>94890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1068457</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>396275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F43FAA3-114D-4750-9AB2-064502EBC2D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="88169" y="98700"/>
+          <a:ext cx="1300328" cy="301385"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2765,11 +3408,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="24" customWidth="1"/>
@@ -2784,15 +3427,15 @@
   <sheetData>
     <row r="1" spans="1:9" ht="38.85" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -2837,7 +3480,7 @@
     <row r="5" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>2</v>
@@ -2855,10 +3498,10 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="17.399999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
       <c r="B6" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>3</v>
@@ -2877,10 +3520,10 @@
       </c>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
       <c r="B7" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>4</v>
@@ -2898,10 +3541,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="48" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>5</v>
@@ -2919,10 +3562,10 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>6</v>
@@ -2940,10 +3583,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
       <c r="B10" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>31</v>
@@ -2964,7 +3607,7 @@
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46"/>
       <c r="B11" s="47" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>39</v>
@@ -2979,17 +3622,17 @@
         <v>126</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
       <c r="B12" s="14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>125</v>
@@ -2999,10 +3642,10 @@
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>40</v>
@@ -3023,7 +3666,7 @@
     <row r="14" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>41</v>
@@ -3044,7 +3687,7 @@
     <row r="15" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>47</v>
@@ -3062,16 +3705,16 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
       <c r="B16" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>125</v>
@@ -3086,11 +3729,11 @@
     <row r="17" spans="1:8" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22"/>
       <c r="B17" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="16" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>125</v>
@@ -3100,10 +3743,10 @@
       </c>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:8" ht="24" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
       <c r="B18" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>49</v>
@@ -3122,10 +3765,10 @@
       </c>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
       <c r="B19" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>53</v>
@@ -3144,10 +3787,10 @@
       </c>
       <c r="H19" s="25"/>
     </row>
-    <row r="20" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
       <c r="B20" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>60</v>
@@ -3164,10 +3807,10 @@
       <c r="G20" s="15"/>
       <c r="H20" s="25"/>
     </row>
-    <row r="21" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
       <c r="B21" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>66</v>
@@ -3186,10 +3829,10 @@
       </c>
       <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22"/>
       <c r="B22" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>84</v>
@@ -3208,10 +3851,10 @@
       </c>
       <c r="H22" s="25"/>
     </row>
-    <row r="23" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
       <c r="B23" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>103</v>
@@ -3230,10 +3873,10 @@
       </c>
       <c r="H23" s="25"/>
     </row>
-    <row r="24" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>110</v>
@@ -3323,9 +3966,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4BC373-9472-45A7-8E38-AC686175D042}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3349,16 +3992,16 @@
       <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -3387,7 +4030,7 @@
     <row r="4" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -3401,7 +4044,7 @@
     <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="38" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>2</v>
@@ -3423,7 +4066,7 @@
     <row r="6" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -3437,7 +4080,7 @@
     <row r="7" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="38" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>3</v>
@@ -3459,7 +4102,7 @@
     <row r="8" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -3473,7 +4116,7 @@
     <row r="9" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="38" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>4</v>
@@ -3495,7 +4138,7 @@
     <row r="10" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -3509,7 +4152,7 @@
     <row r="11" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="38" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>5</v>
@@ -3531,7 +4174,7 @@
     <row r="12" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -3545,7 +4188,7 @@
     <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="38" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>6</v>
@@ -3567,7 +4210,7 @@
     <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>7</v>
@@ -3586,60 +4229,64 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C15" s="38" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="38" t="s">
+        <v>789</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>788</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="38" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C16" s="38" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>788</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="38" t="s">
         <v>168</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="39" t="s">
@@ -3649,19 +4296,19 @@
         <v>126</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C18" s="38" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="39" t="s">
@@ -3671,19 +4318,19 @@
         <v>126</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="38" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="39" t="s">
@@ -3693,19 +4340,19 @@
         <v>126</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="38" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C20" s="38" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="39" t="s">
@@ -3715,19 +4362,19 @@
         <v>138</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C21" s="38" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="39" t="s">
@@ -3737,19 +4384,19 @@
         <v>138</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C22" s="38" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="39" t="s">
@@ -3759,19 +4406,19 @@
         <v>138</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="38" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="39" t="s">
@@ -3781,19 +4428,19 @@
         <v>138</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="38" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="39" t="s">
@@ -3803,19 +4450,19 @@
         <v>138</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="38" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C25" s="38" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="39" t="s">
@@ -3825,19 +4472,19 @@
         <v>138</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="38" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C26" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="39" t="s">
@@ -3847,19 +4494,19 @@
         <v>138</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="38" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C27" s="38" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E27" s="38"/>
       <c r="F27" s="39" t="s">
@@ -3869,19 +4516,19 @@
         <v>138</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="38" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C28" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="39" t="s">
@@ -3891,19 +4538,19 @@
         <v>126</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="38" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E29" s="38"/>
       <c r="F29" s="39" t="s">
@@ -3913,19 +4560,19 @@
         <v>126</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="38" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E30" s="38"/>
       <c r="F30" s="39" t="s">
@@ -3935,19 +4582,19 @@
         <v>126</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="38" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C31" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="39" t="s">
@@ -3957,19 +4604,19 @@
         <v>126</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="38" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="39" t="s">
@@ -3979,19 +4626,19 @@
         <v>126</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="38" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C33" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33" s="39" t="s">
@@ -4001,19 +4648,19 @@
         <v>126</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="38" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C34" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E34" s="38"/>
       <c r="F34" s="39" t="s">
@@ -4023,19 +4670,19 @@
         <v>126</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="38" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C35" s="38" t="s">
         <v>26</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E35" s="38"/>
       <c r="F35" s="39" t="s">
@@ -4045,19 +4692,19 @@
         <v>138</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="38" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E36" s="38"/>
       <c r="F36" s="39" t="s">
@@ -4067,19 +4714,19 @@
         <v>138</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="38" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="39" t="s">
@@ -4089,19 +4736,19 @@
         <v>138</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>28</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="39" t="s">
@@ -4111,19 +4758,19 @@
         <v>138</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="38" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C39" s="38" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="39" t="s">
@@ -4133,19 +4780,19 @@
         <v>138</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C40" s="38" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="39" t="s">
@@ -4155,13 +4802,13 @@
         <v>138</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>31</v>
@@ -4175,7 +4822,7 @@
     <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="38" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>31</v>
@@ -4197,13 +4844,13 @@
     <row r="43" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="38" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C43" s="38" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="39" t="s">
@@ -4213,19 +4860,19 @@
         <v>126</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="38" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C44" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E44" s="38"/>
       <c r="F44" s="39" t="s">
@@ -4235,19 +4882,19 @@
         <v>126</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="38" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C45" s="38" t="s">
         <v>34</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="39" t="s">
@@ -4257,23 +4904,23 @@
         <v>126</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="38" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D46" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E46" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="E46" s="38" t="s">
-        <v>211</v>
-      </c>
       <c r="F46" s="39" t="s">
         <v>128</v>
       </c>
@@ -4281,19 +4928,19 @@
         <v>126</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="38" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C47" s="38" t="s">
         <v>36</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="39" t="s">
@@ -4303,23 +4950,23 @@
         <v>126</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="38" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C48" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="E48" s="38" t="s">
-        <v>211</v>
-      </c>
       <c r="F48" s="39" t="s">
         <v>128</v>
       </c>
@@ -4327,19 +4974,19 @@
         <v>126</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="38" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C49" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="39" t="s">
@@ -4349,23 +4996,23 @@
         <v>126</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="38" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C50" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E50" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="E50" s="38" t="s">
-        <v>211</v>
-      </c>
       <c r="F50" s="39" t="s">
         <v>128</v>
       </c>
@@ -4373,19 +5020,19 @@
         <v>126</v>
       </c>
       <c r="H50" s="38" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C51" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="39" t="s">
@@ -4395,7 +5042,7 @@
         <v>126</v>
       </c>
       <c r="H51" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4437,16 +5084,16 @@
       <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -4475,7 +5122,7 @@
     <row r="4" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>39</v>
@@ -4490,13 +5137,13 @@
     <row r="5" spans="1:9" customFormat="1" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="38" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="39" t="s">
@@ -4506,18 +5153,18 @@
         <v>126</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9" customFormat="1" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="38" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="39" t="s">
@@ -4527,14 +5174,14 @@
         <v>126</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>40</v>
@@ -4548,7 +5195,7 @@
     <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="38" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>40</v>
@@ -4570,7 +5217,7 @@
     <row r="9" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>41</v>
@@ -4584,7 +5231,7 @@
     <row r="10" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="38" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>41</v>
@@ -4606,7 +5253,7 @@
     <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="38" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>7</v>
@@ -4622,21 +5269,23 @@
         <v>126</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="38" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="38"/>
+        <v>217</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>788</v>
+      </c>
       <c r="F12" s="39" t="s">
         <v>128</v>
       </c>
@@ -4644,21 +5293,23 @@
         <v>126</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="38" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="38"/>
+        <v>218</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>788</v>
+      </c>
       <c r="F13" s="39" t="s">
         <v>128</v>
       </c>
@@ -4666,19 +5317,19 @@
         <v>126</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="48" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="38" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="39" t="s">
@@ -4688,19 +5339,19 @@
         <v>126</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="38" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C15" s="38" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="39" t="s">
@@ -4710,19 +5361,19 @@
         <v>138</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="38" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C16" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="39" t="s">
@@ -4732,19 +5383,19 @@
         <v>138</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="39" t="s">
@@ -4754,21 +5405,23 @@
         <v>138</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="84" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="72" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="38" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C18" s="38" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" s="38"/>
+        <v>787</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>788</v>
+      </c>
       <c r="F18" s="39" t="s">
         <v>137</v>
       </c>
@@ -4776,19 +5429,19 @@
         <v>138</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="38" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="39" t="s">
@@ -4798,19 +5451,19 @@
         <v>126</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="38" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C20" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="39" t="s">
@@ -4820,19 +5473,19 @@
         <v>126</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="38" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="39" t="s">
@@ -4842,20 +5495,20 @@
         <v>126</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="38" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C22" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="39" t="s">
@@ -4865,19 +5518,19 @@
         <v>126</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="39" t="s">
@@ -4887,19 +5540,19 @@
         <v>126</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="38" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="39" t="s">
@@ -4909,19 +5562,19 @@
         <v>126</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="38" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C25" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="39" t="s">
@@ -4931,19 +5584,19 @@
         <v>126</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C26" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="39" t="s">
@@ -4953,19 +5606,19 @@
         <v>138</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="38" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C27" s="38" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E27" s="38"/>
       <c r="F27" s="39" t="s">
@@ -4975,19 +5628,19 @@
         <v>126</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C28" s="38" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="39" t="s">
@@ -4997,19 +5650,19 @@
         <v>126</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="38" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E29" s="38"/>
       <c r="F29" s="39" t="s">
@@ -5019,19 +5672,19 @@
         <v>138</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="38" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C30" s="38" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E30" s="38"/>
       <c r="F30" s="39" t="s">
@@ -5041,19 +5694,19 @@
         <v>138</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="38" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C31" s="38" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="39" t="s">
@@ -5063,19 +5716,19 @@
         <v>138</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="38" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="39" t="s">
@@ -5085,19 +5738,19 @@
         <v>138</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="38" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C33" s="38" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33" s="39" t="s">
@@ -5107,19 +5760,19 @@
         <v>138</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="38" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C34" s="38" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E34" s="38"/>
       <c r="F34" s="39" t="s">
@@ -5129,19 +5782,19 @@
         <v>138</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="38" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C35" s="38" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E35" s="38"/>
       <c r="F35" s="39" t="s">
@@ -5151,19 +5804,19 @@
         <v>138</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="38" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E36" s="38"/>
       <c r="F36" s="39" t="s">
@@ -5173,19 +5826,19 @@
         <v>138</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="38" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="39" t="s">
@@ -5195,19 +5848,19 @@
         <v>138</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="38" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="39" t="s">
@@ -5217,19 +5870,19 @@
         <v>126</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="38" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C39" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="39" t="s">
@@ -5239,19 +5892,19 @@
         <v>126</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="38" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="39" t="s">
@@ -5261,19 +5914,19 @@
         <v>126</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="38" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C41" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="39" t="s">
@@ -5283,19 +5936,19 @@
         <v>126</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="38" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="39" t="s">
@@ -5305,19 +5958,19 @@
         <v>126</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="38" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C43" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="39" t="s">
@@ -5327,19 +5980,19 @@
         <v>126</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="38" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C44" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E44" s="38"/>
       <c r="F44" s="39" t="s">
@@ -5349,19 +6002,19 @@
         <v>126</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="38" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C45" s="38" t="s">
         <v>26</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="39" t="s">
@@ -5371,19 +6024,19 @@
         <v>138</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="38" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="39" t="s">
@@ -5393,19 +6046,19 @@
         <v>138</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="38" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="39" t="s">
@@ -5415,19 +6068,19 @@
         <v>138</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="38" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C48" s="38" t="s">
         <v>28</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="39" t="s">
@@ -5437,19 +6090,19 @@
         <v>138</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="38" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C49" s="38" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="39" t="s">
@@ -5459,19 +6112,19 @@
         <v>138</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="38" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C50" s="38" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="39" t="s">
@@ -5481,13 +6134,13 @@
         <v>138</v>
       </c>
       <c r="H50" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>47</v>
@@ -5501,7 +6154,7 @@
     <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>47</v>
@@ -5523,7 +6176,7 @@
     <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>7</v>
@@ -5539,21 +6192,23 @@
         <v>126</v>
       </c>
       <c r="H53" s="38" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="E54" s="15"/>
+        <v>217</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>788</v>
+      </c>
       <c r="F54" s="39" t="s">
         <v>128</v>
       </c>
@@ -5561,21 +6216,23 @@
         <v>126</v>
       </c>
       <c r="H54" s="38" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="E55" s="15"/>
+        <v>218</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>788</v>
+      </c>
       <c r="F55" s="39" t="s">
         <v>128</v>
       </c>
@@ -5583,19 +6240,19 @@
         <v>126</v>
       </c>
       <c r="H55" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="39" t="s">
@@ -5605,19 +6262,19 @@
         <v>126</v>
       </c>
       <c r="H56" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="39" t="s">
@@ -5627,19 +6284,19 @@
         <v>138</v>
       </c>
       <c r="H57" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="39" t="s">
@@ -5649,19 +6306,19 @@
         <v>138</v>
       </c>
       <c r="H58" s="38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="39" t="s">
@@ -5671,21 +6328,23 @@
         <v>138</v>
       </c>
       <c r="H59" s="38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="72" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>45</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="E60" s="15"/>
+        <v>787</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>788</v>
+      </c>
       <c r="F60" s="39" t="s">
         <v>137</v>
       </c>
@@ -5693,19 +6352,19 @@
         <v>138</v>
       </c>
       <c r="H60" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="39" t="s">
@@ -5715,19 +6374,19 @@
         <v>126</v>
       </c>
       <c r="H61" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C62" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E62" s="15"/>
       <c r="F62" s="39" t="s">
@@ -5737,19 +6396,19 @@
         <v>126</v>
       </c>
       <c r="H62" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="22" t="s">
@@ -5759,19 +6418,19 @@
         <v>126</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C64" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="39" t="s">
@@ -5781,19 +6440,19 @@
         <v>126</v>
       </c>
       <c r="H64" s="38" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="19" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="39" t="s">
@@ -5803,19 +6462,19 @@
         <v>126</v>
       </c>
       <c r="H65" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C66" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="39" t="s">
@@ -5825,19 +6484,19 @@
         <v>126</v>
       </c>
       <c r="H66" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C67" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E67" s="15"/>
       <c r="F67" s="39" t="s">
@@ -5847,19 +6506,19 @@
         <v>126</v>
       </c>
       <c r="H67" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="19" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C68" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E68" s="15"/>
       <c r="F68" s="39" t="s">
@@ -5869,19 +6528,19 @@
         <v>138</v>
       </c>
       <c r="H68" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C69" s="38" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="39" t="s">
@@ -5891,19 +6550,19 @@
         <v>126</v>
       </c>
       <c r="H69" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="19" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C70" s="38" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="39" t="s">
@@ -5913,19 +6572,19 @@
         <v>126</v>
       </c>
       <c r="H70" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C71" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D71" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="39" t="s">
@@ -5935,19 +6594,19 @@
         <v>126</v>
       </c>
       <c r="H71" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C72" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="39" t="s">
@@ -5957,19 +6616,19 @@
         <v>126</v>
       </c>
       <c r="H72" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="22" t="s">
@@ -5979,18 +6638,18 @@
         <v>126</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B74" s="19" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C74" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F74" s="41" t="s">
         <v>128</v>
@@ -5999,19 +6658,19 @@
         <v>126</v>
       </c>
       <c r="H74" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C75" s="38" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E75" s="15"/>
       <c r="F75" s="39" t="s">
@@ -6021,19 +6680,19 @@
         <v>126</v>
       </c>
       <c r="H75" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C76" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D76" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E76" s="15"/>
       <c r="F76" s="39" t="s">
@@ -6043,19 +6702,19 @@
         <v>126</v>
       </c>
       <c r="H76" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="25" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E77" s="15"/>
       <c r="F77" s="39" t="s">
@@ -6065,19 +6724,19 @@
         <v>126</v>
       </c>
       <c r="H77" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="19" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>26</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="39" t="s">
@@ -6087,19 +6746,19 @@
         <v>138</v>
       </c>
       <c r="H78" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="19" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E79" s="16"/>
       <c r="F79" s="39" t="s">
@@ -6109,19 +6768,19 @@
         <v>138</v>
       </c>
       <c r="H79" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="19" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D80" s="38" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E80" s="16"/>
       <c r="F80" s="39" t="s">
@@ -6131,19 +6790,19 @@
         <v>138</v>
       </c>
       <c r="H80" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" s="19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C81" s="38" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E81" s="16"/>
       <c r="F81" s="39" t="s">
@@ -6153,19 +6812,19 @@
         <v>138</v>
       </c>
       <c r="H81" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
       <c r="B82" s="19" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C82" s="38" t="s">
         <v>29</v>
       </c>
       <c r="D82" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E82" s="16"/>
       <c r="F82" s="39" t="s">
@@ -6175,19 +6834,19 @@
         <v>138</v>
       </c>
       <c r="H82" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="19" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D83" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E83" s="16"/>
       <c r="F83" s="39" t="s">
@@ -6197,7 +6856,7 @@
         <v>138</v>
       </c>
       <c r="H83" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6241,16 +6900,16 @@
       <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:8" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -6279,7 +6938,7 @@
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>39</v>
@@ -6293,13 +6952,13 @@
     <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="38" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="39" t="s">
@@ -6309,17 +6968,17 @@
         <v>126</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="38" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="39" t="s">
@@ -6329,13 +6988,13 @@
         <v>126</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>48</v>
@@ -6349,13 +7008,13 @@
     <row r="8" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="38" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="39" t="s">
@@ -6365,17 +7024,17 @@
         <v>126</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="38" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="39" t="s">
@@ -6391,7 +7050,7 @@
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="33"/>
       <c r="B10" s="33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>49</v>
@@ -6413,13 +7072,13 @@
     <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="38" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="39" t="s">
@@ -6429,21 +7088,23 @@
         <v>126</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="38" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="38"/>
+        <v>232</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>788</v>
+      </c>
       <c r="F12" s="39" t="s">
         <v>128</v>
       </c>
@@ -6451,21 +7112,23 @@
         <v>126</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="38" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="E13" s="38"/>
+        <v>234</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>788</v>
+      </c>
       <c r="F13" s="39" t="s">
         <v>128</v>
       </c>
@@ -6473,19 +7136,19 @@
         <v>126</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="38" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="39" t="s">
@@ -6495,19 +7158,19 @@
         <v>138</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="38" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C15" s="38" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="39" t="s">
@@ -6517,21 +7180,23 @@
         <v>138</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="38" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>520</v>
-      </c>
-      <c r="E16" s="38"/>
+        <v>518</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>788</v>
+      </c>
       <c r="F16" s="39" t="s">
         <v>128</v>
       </c>
@@ -6539,21 +7204,23 @@
         <v>126</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="38" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>522</v>
-      </c>
-      <c r="E17" s="38"/>
+        <v>790</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>788</v>
+      </c>
       <c r="F17" s="39" t="s">
         <v>128</v>
       </c>
@@ -6561,19 +7228,19 @@
         <v>126</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="38" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="39" t="s">
@@ -6583,19 +7250,19 @@
         <v>126</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="38" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="39" t="s">
@@ -6605,19 +7272,19 @@
         <v>126</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="38" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C20" s="38" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="39" t="s">
@@ -6627,21 +7294,23 @@
         <v>126</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="38" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>525</v>
-      </c>
-      <c r="E21" s="38"/>
+        <v>522</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>788</v>
+      </c>
       <c r="F21" s="39" t="s">
         <v>128</v>
       </c>
@@ -6649,21 +7318,23 @@
         <v>126</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="38" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>527</v>
-      </c>
-      <c r="E22" s="38"/>
+        <v>524</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>788</v>
+      </c>
       <c r="F22" s="39" t="s">
         <v>128</v>
       </c>
@@ -6671,19 +7342,19 @@
         <v>126</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="38" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="39" t="s">
@@ -6693,13 +7364,13 @@
         <v>138</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="33"/>
       <c r="B24" s="33" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>53</v>
@@ -6721,13 +7392,13 @@
     <row r="25" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="38" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C25" s="38" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="39" t="s">
@@ -6737,19 +7408,19 @@
         <v>126</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="38" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C26" s="38" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="39" t="s">
@@ -6759,19 +7430,19 @@
         <v>138</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="38" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C27" s="38" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E27" s="38"/>
       <c r="F27" s="39" t="s">
@@ -6781,19 +7452,19 @@
         <v>126</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="38" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C28" s="38" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="39" t="s">
@@ -6803,19 +7474,19 @@
         <v>126</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="38" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E29" s="38"/>
       <c r="F29" s="39" t="s">
@@ -6825,19 +7496,19 @@
         <v>126</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="38" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C30" s="38" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E30" s="38"/>
       <c r="F30" s="39" t="s">
@@ -6847,19 +7518,19 @@
         <v>126</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="38" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C31" s="38" t="s">
         <v>59</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="39" t="s">
@@ -6869,13 +7540,13 @@
         <v>126</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="33"/>
       <c r="B32" s="33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>60</v>
@@ -6895,13 +7566,13 @@
     <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="38" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C33" s="38" t="s">
         <v>61</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33" s="39" t="s">
@@ -6911,21 +7582,23 @@
         <v>126</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C34" s="38" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="E34" s="38"/>
+        <v>249</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>788</v>
+      </c>
       <c r="F34" s="39" t="s">
         <v>128</v>
       </c>
@@ -6933,22 +7606,22 @@
         <v>126</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="38" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C35" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F35" s="39" t="s">
         <v>128</v>
@@ -6957,19 +7630,19 @@
         <v>126</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E36" s="38"/>
       <c r="F36" s="39" t="s">
@@ -6979,23 +7652,23 @@
         <v>126</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="38" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="E37" s="38" t="s">
-        <v>211</v>
-      </c>
       <c r="F37" s="39" t="s">
         <v>128</v>
       </c>
@@ -7003,19 +7676,19 @@
         <v>126</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="38" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>65</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="39" t="s">
@@ -7025,23 +7698,23 @@
         <v>138</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="38" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C39" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E39" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="E39" s="38" t="s">
-        <v>211</v>
-      </c>
       <c r="F39" s="39" t="s">
         <v>128</v>
       </c>
@@ -7049,13 +7722,13 @@
         <v>126</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="33"/>
       <c r="B40" s="33" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>66</v>
@@ -7077,16 +7750,16 @@
     <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="38" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C41" s="38" t="s">
         <v>67</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F41" s="39" t="s">
         <v>128</v>
@@ -7095,19 +7768,19 @@
         <v>126</v>
       </c>
       <c r="H41" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="38" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>68</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="39" t="s">
@@ -7117,19 +7790,19 @@
         <v>138</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="38" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C43" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="39" t="s">
@@ -7139,19 +7812,19 @@
         <v>126</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="38" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C44" s="38" t="s">
         <v>70</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E44" s="38"/>
       <c r="F44" s="39" t="s">
@@ -7161,19 +7834,19 @@
         <v>126</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="38" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C45" s="38" t="s">
         <v>71</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="39" t="s">
@@ -7183,19 +7856,19 @@
         <v>138</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="38" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="39" t="s">
@@ -7205,19 +7878,19 @@
         <v>126</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="38" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C47" s="38" t="s">
         <v>73</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="39" t="s">
@@ -7227,19 +7900,19 @@
         <v>138</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="38" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C48" s="38" t="s">
         <v>74</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="39" t="s">
@@ -7249,19 +7922,19 @@
         <v>126</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="38" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C49" s="38" t="s">
         <v>75</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="39" t="s">
@@ -7271,19 +7944,19 @@
         <v>126</v>
       </c>
       <c r="H49" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C50" s="38" t="s">
         <v>76</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="39" t="s">
@@ -7293,19 +7966,19 @@
         <v>138</v>
       </c>
       <c r="H50" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="51" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="38" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C51" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="39" t="s">
@@ -7315,19 +7988,19 @@
         <v>126</v>
       </c>
       <c r="H51" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="38" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C52" s="38" t="s">
         <v>78</v>
       </c>
       <c r="D52" s="38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="39" t="s">
@@ -7337,19 +8010,19 @@
         <v>138</v>
       </c>
       <c r="H52" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="53" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C53" s="38" t="s">
         <v>79</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="39" t="s">
@@ -7359,22 +8032,22 @@
         <v>138</v>
       </c>
       <c r="H53" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="38" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>80</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F54" s="39" t="s">
         <v>128</v>
@@ -7383,22 +8056,22 @@
         <v>126</v>
       </c>
       <c r="H54" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="55" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="38" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C55" s="38" t="s">
         <v>81</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F55" s="39" t="s">
         <v>128</v>
@@ -7407,22 +8080,22 @@
         <v>126</v>
       </c>
       <c r="H55" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="56" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="38" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C56" s="38" t="s">
         <v>82</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F56" s="39" t="s">
         <v>128</v>
@@ -7431,22 +8104,22 @@
         <v>126</v>
       </c>
       <c r="H56" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="38" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C57" s="38" t="s">
         <v>83</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F57" s="39" t="s">
         <v>128</v>
@@ -7455,22 +8128,22 @@
         <v>126</v>
       </c>
       <c r="H57" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="38" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C58" s="38" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F58" s="39" t="s">
         <v>128</v>
@@ -7479,22 +8152,22 @@
         <v>126</v>
       </c>
       <c r="H58" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="31" customFormat="1" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="38" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C59" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F59" s="39" t="s">
         <v>128</v>
@@ -7503,14 +8176,14 @@
         <v>126</v>
       </c>
       <c r="H59" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I59" s="32"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="33"/>
       <c r="B60" s="33" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>84</v>
@@ -7532,13 +8205,13 @@
     <row r="61" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="38" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C61" s="38" t="s">
         <v>85</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="39" t="s">
@@ -7548,19 +8221,19 @@
         <v>126</v>
       </c>
       <c r="H61" s="38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="38" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C62" s="38" t="s">
         <v>86</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="39" t="s">
@@ -7570,19 +8243,19 @@
         <v>138</v>
       </c>
       <c r="H62" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="38" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C63" s="38" t="s">
         <v>87</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="39" t="s">
@@ -7592,19 +8265,19 @@
         <v>138</v>
       </c>
       <c r="H63" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="38" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C64" s="38" t="s">
         <v>88</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="39" t="s">
@@ -7614,19 +8287,19 @@
         <v>138</v>
       </c>
       <c r="H64" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="38" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C65" s="38" t="s">
         <v>89</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="39" t="s">
@@ -7636,19 +8309,19 @@
         <v>138</v>
       </c>
       <c r="H65" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="38" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C66" s="38" t="s">
         <v>90</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E66" s="38"/>
       <c r="F66" s="39" t="s">
@@ -7658,19 +8331,19 @@
         <v>126</v>
       </c>
       <c r="H66" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="38" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C67" s="38" t="s">
         <v>91</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E67" s="38"/>
       <c r="F67" s="39" t="s">
@@ -7680,19 +8353,19 @@
         <v>126</v>
       </c>
       <c r="H67" s="38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="38" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C68" s="38" t="s">
         <v>92</v>
       </c>
       <c r="D68" s="38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="39" t="s">
@@ -7702,19 +8375,19 @@
         <v>138</v>
       </c>
       <c r="H68" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
       <c r="B69" s="38" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C69" s="38" t="s">
         <v>93</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="39" t="s">
@@ -7724,19 +8397,19 @@
         <v>126</v>
       </c>
       <c r="H69" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="38" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C70" s="38" t="s">
         <v>94</v>
       </c>
       <c r="D70" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="39" t="s">
@@ -7746,21 +8419,23 @@
         <v>126</v>
       </c>
       <c r="H70" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="38" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C71" s="38" t="s">
         <v>95</v>
       </c>
       <c r="D71" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="E71" s="38"/>
+        <v>293</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>788</v>
+      </c>
       <c r="F71" s="39" t="s">
         <v>137</v>
       </c>
@@ -7768,22 +8443,22 @@
         <v>138</v>
       </c>
       <c r="H71" s="38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="38" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C72" s="38" t="s">
         <v>96</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E72" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F72" s="39" t="s">
         <v>128</v>
@@ -7792,22 +8467,22 @@
         <v>126</v>
       </c>
       <c r="H72" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="38" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C73" s="38" t="s">
         <v>97</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E73" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F73" s="39" t="s">
         <v>128</v>
@@ -7816,19 +8491,19 @@
         <v>126</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="38" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C74" s="38" t="s">
         <v>98</v>
       </c>
       <c r="D74" s="38" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E74" s="38"/>
       <c r="F74" s="39" t="s">
@@ -7838,19 +8513,19 @@
         <v>138</v>
       </c>
       <c r="H74" s="38" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="38" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C75" s="38" t="s">
         <v>69</v>
       </c>
       <c r="D75" s="38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E75" s="38"/>
       <c r="F75" s="39" t="s">
@@ -7860,19 +8535,19 @@
         <v>126</v>
       </c>
       <c r="H75" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="38" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C76" s="38" t="s">
         <v>70</v>
       </c>
       <c r="D76" s="38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="39" t="s">
@@ -7882,19 +8557,19 @@
         <v>126</v>
       </c>
       <c r="H76" s="38" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="38" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>71</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="39" t="s">
@@ -7904,19 +8579,19 @@
         <v>138</v>
       </c>
       <c r="H77" s="38" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="38" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="39" t="s">
@@ -7926,19 +8601,19 @@
         <v>126</v>
       </c>
       <c r="H78" s="38" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="38" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>99</v>
       </c>
       <c r="D79" s="38" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="39" t="s">
@@ -7948,19 +8623,19 @@
         <v>138</v>
       </c>
       <c r="H79" s="38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="38" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C80" s="38" t="s">
         <v>74</v>
       </c>
       <c r="D80" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E80" s="38"/>
       <c r="F80" s="39" t="s">
@@ -7970,19 +8645,19 @@
         <v>126</v>
       </c>
       <c r="H80" s="38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="38" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C81" s="38" t="s">
         <v>75</v>
       </c>
       <c r="D81" s="38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E81" s="38"/>
       <c r="F81" s="39" t="s">
@@ -7992,19 +8667,19 @@
         <v>126</v>
       </c>
       <c r="H81" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="38" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C82" s="38" t="s">
         <v>76</v>
       </c>
       <c r="D82" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="39" t="s">
@@ -8014,19 +8689,19 @@
         <v>138</v>
       </c>
       <c r="H82" s="38" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="38" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C83" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D83" s="38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="39" t="s">
@@ -8036,22 +8711,22 @@
         <v>126</v>
       </c>
       <c r="H83" s="38" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="84" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
       <c r="B84" s="38" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C84" s="38" t="s">
         <v>100</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E84" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F84" s="39" t="s">
         <v>128</v>
@@ -8060,19 +8735,19 @@
         <v>126</v>
       </c>
       <c r="H84" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="38" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C85" s="38" t="s">
         <v>60</v>
       </c>
       <c r="D85" s="38" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="39" t="s">
@@ -8082,19 +8757,19 @@
         <v>126</v>
       </c>
       <c r="H85" s="38" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="86" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="38" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C86" s="38" t="s">
         <v>61</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="39" t="s">
@@ -8104,21 +8779,23 @@
         <v>126</v>
       </c>
       <c r="H86" s="38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="38" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C87" s="38" t="s">
         <v>62</v>
       </c>
       <c r="D87" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="E87" s="38"/>
+        <v>249</v>
+      </c>
+      <c r="E87" s="38" t="s">
+        <v>788</v>
+      </c>
       <c r="F87" s="39" t="s">
         <v>128</v>
       </c>
@@ -8126,22 +8803,22 @@
         <v>126</v>
       </c>
       <c r="H87" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
       <c r="B88" s="38" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C88" s="38" t="s">
         <v>63</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E88" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F88" s="39" t="s">
         <v>128</v>
@@ -8150,19 +8827,19 @@
         <v>126</v>
       </c>
       <c r="H88" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="89" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="38" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>64</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="39" t="s">
@@ -8172,23 +8849,23 @@
         <v>126</v>
       </c>
       <c r="H89" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="38" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C90" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D90" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E90" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="E90" s="38" t="s">
-        <v>211</v>
-      </c>
       <c r="F90" s="39" t="s">
         <v>128</v>
       </c>
@@ -8196,19 +8873,19 @@
         <v>126</v>
       </c>
       <c r="H90" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="91" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="38" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C91" s="38" t="s">
         <v>65</v>
       </c>
       <c r="D91" s="38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E91" s="38"/>
       <c r="F91" s="39" t="s">
@@ -8218,23 +8895,23 @@
         <v>138</v>
       </c>
       <c r="H91" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
       <c r="B92" s="38" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C92" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D92" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E92" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="E92" s="38" t="s">
-        <v>211</v>
-      </c>
       <c r="F92" s="39" t="s">
         <v>128</v>
       </c>
@@ -8242,19 +8919,19 @@
         <v>126</v>
       </c>
       <c r="H92" s="38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="93" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
       <c r="B93" s="38" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C93" s="38" t="s">
         <v>101</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="39" t="s">
@@ -8264,19 +8941,19 @@
         <v>138</v>
       </c>
       <c r="H93" s="38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
       <c r="B94" s="38" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C94" s="38" t="s">
         <v>56</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="39" t="s">
@@ -8286,19 +8963,19 @@
         <v>126</v>
       </c>
       <c r="H94" s="38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
       <c r="B95" s="38" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C95" s="38" t="s">
         <v>57</v>
       </c>
       <c r="D95" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="39" t="s">
@@ -8308,19 +8985,19 @@
         <v>126</v>
       </c>
       <c r="H95" s="38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
       <c r="B96" s="38" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C96" s="38" t="s">
         <v>102</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="39" t="s">
@@ -8330,13 +9007,13 @@
         <v>138</v>
       </c>
       <c r="H96" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="33"/>
       <c r="B97" s="33" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>103</v>
@@ -8352,19 +9029,19 @@
         <v>138</v>
       </c>
       <c r="H97" s="34" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="38" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C98" s="38" t="s">
         <v>104</v>
       </c>
       <c r="D98" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="39" t="s">
@@ -8374,19 +9051,19 @@
         <v>126</v>
       </c>
       <c r="H98" s="38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="38" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C99" s="38" t="s">
         <v>105</v>
       </c>
       <c r="D99" s="38" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="39" t="s">
@@ -8396,19 +9073,19 @@
         <v>126</v>
       </c>
       <c r="H99" s="38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="38" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C100" s="38" t="s">
         <v>106</v>
       </c>
       <c r="D100" s="38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="39" t="s">
@@ -8418,21 +9095,23 @@
         <v>126</v>
       </c>
       <c r="H100" s="38" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="38" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C101" s="38" t="s">
         <v>107</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="E101" s="38"/>
+        <v>310</v>
+      </c>
+      <c r="E101" s="38" t="s">
+        <v>788</v>
+      </c>
       <c r="F101" s="39" t="s">
         <v>128</v>
       </c>
@@ -8440,19 +9119,19 @@
         <v>126</v>
       </c>
       <c r="H101" s="38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="38" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C102" s="38" t="s">
         <v>108</v>
       </c>
       <c r="D102" s="38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E102" s="38"/>
       <c r="F102" s="39" t="s">
@@ -8462,19 +9141,19 @@
         <v>138</v>
       </c>
       <c r="H102" s="38" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
       <c r="B103" s="38" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C103" s="38" t="s">
         <v>109</v>
       </c>
       <c r="D103" s="38" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E103" s="38"/>
       <c r="F103" s="39" t="s">
@@ -8484,19 +9163,19 @@
         <v>126</v>
       </c>
       <c r="H103" s="38" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="104" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="38" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D104" s="38" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="39" t="s">
@@ -8506,19 +9185,19 @@
         <v>138</v>
       </c>
       <c r="H104" s="38" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="105" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="38" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="39" t="s">
@@ -8528,19 +9207,19 @@
         <v>138</v>
       </c>
       <c r="H105" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="33"/>
       <c r="B106" s="33" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D106" s="36" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E106" s="35"/>
       <c r="F106" s="35" t="s">
@@ -8550,35 +9229,35 @@
         <v>138</v>
       </c>
       <c r="H106" s="34" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="38" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D107" s="38" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="39" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G107" s="39" t="s">
         <v>138</v>
       </c>
       <c r="H107" s="38" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="33"/>
       <c r="B108" s="33" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C108" s="33" t="s">
         <v>110</v>
@@ -8600,13 +9279,13 @@
     <row r="109" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
       <c r="B109" s="38" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C109" s="38" t="s">
         <v>111</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="39" t="s">
@@ -8616,19 +9295,19 @@
         <v>138</v>
       </c>
       <c r="H109" s="38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
       <c r="B110" s="38" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>112</v>
       </c>
       <c r="D110" s="38" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="39" t="s">
@@ -8638,19 +9317,19 @@
         <v>126</v>
       </c>
       <c r="H110" s="38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
       <c r="B111" s="38" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C111" s="38" t="s">
         <v>113</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="39" t="s">
@@ -8660,19 +9339,19 @@
         <v>138</v>
       </c>
       <c r="H111" s="38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
       <c r="B112" s="38" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C112" s="38" t="s">
         <v>114</v>
       </c>
       <c r="D112" s="38" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="39" t="s">
@@ -8682,19 +9361,19 @@
         <v>126</v>
       </c>
       <c r="H112" s="38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="113" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A113" s="14"/>
       <c r="B113" s="38" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>115</v>
       </c>
       <c r="D113" s="38" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="39" t="s">
@@ -8704,18 +9383,18 @@
         <v>138</v>
       </c>
       <c r="H113" s="38" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="114" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B114" s="38" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C114" s="38" t="s">
         <v>116</v>
       </c>
       <c r="D114" s="38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E114" s="38"/>
       <c r="F114" s="39" t="s">
@@ -8725,18 +9404,18 @@
         <v>138</v>
       </c>
       <c r="H114" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B115" s="38" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C115" s="38" t="s">
         <v>117</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E115" s="38"/>
       <c r="F115" s="39" t="s">
@@ -8746,19 +9425,19 @@
         <v>126</v>
       </c>
       <c r="H115" s="38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="33"/>
       <c r="B116" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="C116" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="D116" s="36" t="s">
         <v>581</v>
-      </c>
-      <c r="C116" s="33" t="s">
-        <v>583</v>
-      </c>
-      <c r="D116" s="36" t="s">
-        <v>584</v>
       </c>
       <c r="E116" s="35"/>
       <c r="F116" s="35" t="s">
@@ -8768,19 +9447,19 @@
         <v>138</v>
       </c>
       <c r="H116" s="34" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="14"/>
       <c r="B117" s="38" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C117" s="38" t="s">
         <v>143</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="39" t="s">
@@ -8790,19 +9469,19 @@
         <v>138</v>
       </c>
       <c r="H117" s="38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="14"/>
       <c r="B118" s="38" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D118" s="38" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="39" t="s">
@@ -8812,7 +9491,7 @@
         <v>138</v>
       </c>
       <c r="H118" s="38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -8821,6 +9500,1262 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A21AC00-C6CA-49D8-AAB7-0299DE763BE4}">
+  <dimension ref="A1:D136"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="60" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="25" customFormat="1" ht="38.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="57"/>
+    </row>
+    <row r="2" spans="1:4" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+    </row>
+    <row r="3" spans="1:4" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53"/>
+      <c r="B5" s="38" t="s">
+        <v>614</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>616</v>
+      </c>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54"/>
+      <c r="B6" s="38" t="s">
+        <v>615</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
+      <c r="B8" s="38" t="s">
+        <v>620</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="38" t="s">
+        <v>621</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="54"/>
+      <c r="B10" s="38" t="s">
+        <v>622</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="52" t="s">
+        <v>626</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="54"/>
+      <c r="B12" s="38" t="s">
+        <v>628</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
+      <c r="B13" s="38" t="s">
+        <v>629</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="54"/>
+      <c r="B14" s="38" t="s">
+        <v>630</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="54"/>
+      <c r="B15" s="38" t="s">
+        <v>631</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="54"/>
+      <c r="B16" s="38" t="s">
+        <v>632</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="54"/>
+      <c r="B17" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="52" t="s">
+        <v>640</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="54"/>
+      <c r="B19" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="54"/>
+      <c r="B20" s="38" t="s">
+        <v>643</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="54"/>
+      <c r="B21" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="54"/>
+      <c r="B22" s="38" t="s">
+        <v>645</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="54"/>
+      <c r="B23" s="38" t="s">
+        <v>646</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="54"/>
+      <c r="B24" s="38" t="s">
+        <v>647</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="54"/>
+      <c r="B25" s="38" t="s">
+        <v>648</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="54"/>
+      <c r="B26" s="38" t="s">
+        <v>649</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="54"/>
+      <c r="B27" s="38" t="s">
+        <v>650</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="54"/>
+      <c r="B28" s="38" t="s">
+        <v>651</v>
+      </c>
+      <c r="C28" s="56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="C29" s="56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="C30" s="56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38" t="s">
+        <v>654</v>
+      </c>
+      <c r="C31" s="56">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38" t="s">
+        <v>655</v>
+      </c>
+      <c r="C32" s="56">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38" t="s">
+        <v>656</v>
+      </c>
+      <c r="C33" s="56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38" t="s">
+        <v>657</v>
+      </c>
+      <c r="C34" s="56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="C35" s="56">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="C36" s="56">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38" t="s">
+        <v>660</v>
+      </c>
+      <c r="C37" s="56">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38" t="s">
+        <v>661</v>
+      </c>
+      <c r="C38" s="56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38" t="s">
+        <v>662</v>
+      </c>
+      <c r="C39" s="56">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38" t="s">
+        <v>663</v>
+      </c>
+      <c r="C40" s="56">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="C41" s="56">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38" t="s">
+        <v>665</v>
+      </c>
+      <c r="C42" s="56">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38" t="s">
+        <v>666</v>
+      </c>
+      <c r="C43" s="56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="C44" s="56">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38" t="s">
+        <v>673</v>
+      </c>
+      <c r="C45" s="56">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="C46" s="56">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38" t="s">
+        <v>669</v>
+      </c>
+      <c r="C47" s="56">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38" t="s">
+        <v>670</v>
+      </c>
+      <c r="C48" s="56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38" t="s">
+        <v>671</v>
+      </c>
+      <c r="C49" s="56">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="38"/>
+      <c r="B50" s="38" t="s">
+        <v>672</v>
+      </c>
+      <c r="C50" s="56">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="52" t="s">
+        <v>707</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38" t="s">
+        <v>691</v>
+      </c>
+      <c r="C52" s="56" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38" t="s">
+        <v>692</v>
+      </c>
+      <c r="C53" s="56" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38" t="s">
+        <v>693</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38" t="s">
+        <v>694</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38" t="s">
+        <v>695</v>
+      </c>
+      <c r="C56" s="56" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="38"/>
+      <c r="B57" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="C57" s="56" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="C58" s="56" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38" t="s">
+        <v>698</v>
+      </c>
+      <c r="C59" s="56" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38" t="s">
+        <v>699</v>
+      </c>
+      <c r="C60" s="56" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38" t="s">
+        <v>700</v>
+      </c>
+      <c r="C61" s="56" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38" t="s">
+        <v>701</v>
+      </c>
+      <c r="C62" s="56" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="38"/>
+      <c r="B63" s="38" t="s">
+        <v>702</v>
+      </c>
+      <c r="C63" s="56" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="C64" s="56" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="38"/>
+      <c r="B65" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="C65" s="56" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="38"/>
+      <c r="B66" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="C66" s="56" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="38"/>
+      <c r="B67" s="38" t="s">
+        <v>706</v>
+      </c>
+      <c r="C67" s="56" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="52" t="s">
+        <v>731</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C68" s="59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="38"/>
+      <c r="B69" s="38" t="s">
+        <v>711</v>
+      </c>
+      <c r="C69" s="56" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="38"/>
+      <c r="B70" s="38" t="s">
+        <v>712</v>
+      </c>
+      <c r="C70" s="56" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="38"/>
+      <c r="B71" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="C71" s="56" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="38"/>
+      <c r="B72" s="38" t="s">
+        <v>714</v>
+      </c>
+      <c r="C72" s="56" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="38"/>
+      <c r="B73" s="38" t="s">
+        <v>715</v>
+      </c>
+      <c r="C73" s="56" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="38"/>
+      <c r="B74" s="38" t="s">
+        <v>716</v>
+      </c>
+      <c r="C74" s="56" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="38"/>
+      <c r="B75" s="38" t="s">
+        <v>717</v>
+      </c>
+      <c r="C75" s="56" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="38"/>
+      <c r="B76" s="38" t="s">
+        <v>718</v>
+      </c>
+      <c r="C76" s="56" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="38"/>
+      <c r="B77" s="38" t="s">
+        <v>719</v>
+      </c>
+      <c r="C77" s="56" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38" t="s">
+        <v>720</v>
+      </c>
+      <c r="C78" s="56" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="38"/>
+      <c r="B79" s="38" t="s">
+        <v>721</v>
+      </c>
+      <c r="C79" s="56" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="38"/>
+      <c r="B80" s="38" t="s">
+        <v>722</v>
+      </c>
+      <c r="C80" s="56" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="38"/>
+      <c r="B81" s="38" t="s">
+        <v>723</v>
+      </c>
+      <c r="C81" s="56" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="38"/>
+      <c r="B82" s="38" t="s">
+        <v>724</v>
+      </c>
+      <c r="C82" s="56" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="38"/>
+      <c r="B83" s="38" t="s">
+        <v>725</v>
+      </c>
+      <c r="C83" s="56" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="38"/>
+      <c r="B84" s="38" t="s">
+        <v>726</v>
+      </c>
+      <c r="C84" s="56" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="38"/>
+      <c r="B85" s="38" t="s">
+        <v>727</v>
+      </c>
+      <c r="C85" s="56" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="38"/>
+      <c r="B86" s="38" t="s">
+        <v>728</v>
+      </c>
+      <c r="C86" s="56" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="38"/>
+      <c r="B87" s="38" t="s">
+        <v>729</v>
+      </c>
+      <c r="C87" s="56" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="52" t="s">
+        <v>732</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C88" s="59" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="38"/>
+      <c r="B89" s="38" t="s">
+        <v>741</v>
+      </c>
+      <c r="C89" s="56" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="38"/>
+      <c r="B90" s="38" t="s">
+        <v>742</v>
+      </c>
+      <c r="C90" s="56" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="38"/>
+      <c r="B91" s="38" t="s">
+        <v>743</v>
+      </c>
+      <c r="C91" s="56" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="38"/>
+      <c r="B92" s="38" t="s">
+        <v>744</v>
+      </c>
+      <c r="C92" s="56" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="38"/>
+      <c r="B93" s="38" t="s">
+        <v>745</v>
+      </c>
+      <c r="C93" s="56" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="56"/>
+      <c r="B94" s="56" t="s">
+        <v>746</v>
+      </c>
+      <c r="C94" s="56" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="56"/>
+      <c r="B95" s="56" t="s">
+        <v>747</v>
+      </c>
+      <c r="C95" s="56" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="56"/>
+      <c r="B96" s="56" t="s">
+        <v>748</v>
+      </c>
+      <c r="C96" s="56" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="56"/>
+      <c r="B97" s="56" t="s">
+        <v>749</v>
+      </c>
+      <c r="C97" s="56" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="56"/>
+      <c r="B98" s="56" t="s">
+        <v>750</v>
+      </c>
+      <c r="C98" s="56" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="56"/>
+      <c r="B99" s="56" t="s">
+        <v>751</v>
+      </c>
+      <c r="C99" s="56" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="56"/>
+      <c r="B100" s="56" t="s">
+        <v>752</v>
+      </c>
+      <c r="C100" s="56" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="56"/>
+      <c r="B101" s="56" t="s">
+        <v>753</v>
+      </c>
+      <c r="C101" s="56" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="56"/>
+      <c r="B102" s="56" t="s">
+        <v>754</v>
+      </c>
+      <c r="C102" s="56" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="56"/>
+      <c r="B103" s="56" t="s">
+        <v>755</v>
+      </c>
+      <c r="C103" s="56" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="56"/>
+      <c r="B104" s="56" t="s">
+        <v>756</v>
+      </c>
+      <c r="C104" s="56" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="56"/>
+      <c r="B105" s="56" t="s">
+        <v>757</v>
+      </c>
+      <c r="C105" s="56" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="56"/>
+      <c r="B106" s="56" t="s">
+        <v>758</v>
+      </c>
+      <c r="C106" s="56" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="56"/>
+      <c r="B107" s="56" t="s">
+        <v>759</v>
+      </c>
+      <c r="C107" s="56" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="56"/>
+      <c r="B108" s="56" t="s">
+        <v>760</v>
+      </c>
+      <c r="C108" s="56" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="56"/>
+      <c r="B109" s="56" t="s">
+        <v>761</v>
+      </c>
+      <c r="C109" s="56" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="56"/>
+      <c r="B110" s="56" t="s">
+        <v>762</v>
+      </c>
+      <c r="C110" s="56" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="52" t="s">
+        <v>763</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C111" s="59" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="56"/>
+      <c r="B112" s="56" t="s">
+        <v>765</v>
+      </c>
+      <c r="C112" s="56" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="56"/>
+      <c r="B113" s="56" t="s">
+        <v>768</v>
+      </c>
+      <c r="C113" s="56" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="56"/>
+      <c r="B114" s="56" t="s">
+        <v>766</v>
+      </c>
+      <c r="C114" s="56" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="56"/>
+      <c r="B115" s="56" t="s">
+        <v>767</v>
+      </c>
+      <c r="C115" s="56" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="52" t="s">
+        <v>769</v>
+      </c>
+      <c r="B116" s="52" t="s">
+        <v>770</v>
+      </c>
+      <c r="C116" s="52" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="33"/>
+      <c r="B117" s="33" t="s">
+        <v>772</v>
+      </c>
+      <c r="C117" s="33"/>
+    </row>
+    <row r="118" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="56"/>
+      <c r="B118" s="56" t="s">
+        <v>773</v>
+      </c>
+      <c r="C118" s="56" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="56"/>
+      <c r="B119" s="56" t="s">
+        <v>774</v>
+      </c>
+      <c r="C119" s="56" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="56"/>
+      <c r="B120" s="56" t="s">
+        <v>775</v>
+      </c>
+      <c r="C120" s="56" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="56"/>
+      <c r="B121" s="56" t="s">
+        <v>776</v>
+      </c>
+      <c r="C121" s="56" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="56"/>
+      <c r="B122" s="56" t="s">
+        <v>777</v>
+      </c>
+      <c r="C122" s="56" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="56"/>
+      <c r="B123" s="56" t="s">
+        <v>778</v>
+      </c>
+      <c r="C123" s="56" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="56"/>
+      <c r="B124" s="56" t="s">
+        <v>779</v>
+      </c>
+      <c r="C124" s="56" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="56"/>
+      <c r="B125" s="56" t="s">
+        <v>780</v>
+      </c>
+      <c r="C125" s="56" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="56"/>
+      <c r="B126" s="56" t="s">
+        <v>781</v>
+      </c>
+      <c r="C126" s="56" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="33"/>
+      <c r="B127" s="33" t="s">
+        <v>782</v>
+      </c>
+      <c r="C127" s="33"/>
+    </row>
+    <row r="128" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="56"/>
+      <c r="B128" s="56" t="s">
+        <v>783</v>
+      </c>
+      <c r="C128" s="56" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="56"/>
+      <c r="B129" s="56" t="s">
+        <v>784</v>
+      </c>
+      <c r="C129" s="56" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="56"/>
+      <c r="B130" s="56" t="s">
+        <v>785</v>
+      </c>
+      <c r="C130" s="56" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="56"/>
+      <c r="B131" s="56" t="s">
+        <v>786</v>
+      </c>
+      <c r="C131" s="56" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="52" t="s">
+        <v>797</v>
+      </c>
+      <c r="B132" s="52" t="s">
+        <v>798</v>
+      </c>
+      <c r="C132" s="52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="56"/>
+      <c r="B133" s="56" t="s">
+        <v>794</v>
+      </c>
+      <c r="C133" s="56" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="56"/>
+      <c r="B134" s="56" t="s">
+        <v>795</v>
+      </c>
+      <c r="C134" s="56" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="56"/>
+      <c r="B135" s="56" t="s">
+        <v>796</v>
+      </c>
+      <c r="C135" s="56" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" collapsed="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C19:C27 C52:C67 C69:C87 C89:C110 C112:C115 C118:C126 C128:C131" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/Guia_Api_Facturas_Generix_RCI.xlsx
+++ b/Guia_Api_Facturas_Generix_RCI.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="687" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A683F7DC-63C3-4172-97EC-2DAEC55CFEC3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22428" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14685" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema General" sheetId="1" r:id="rId1"/>
@@ -3408,7 +3408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -3967,8 +3967,8 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -5059,7 +5059,7 @@
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -6873,8 +6873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25333C4E-FCEB-4BCB-A95F-5DF88E54B42A}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -10761,6 +10761,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010059947A54AABC264B9B6A1395610EB9E4" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="039196c1875697d49709999e09f36296">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="669b3db3-d5a4-4d30-a460-f1a7bf62d82d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9472c2359e272d42a2ac2df94db4dd7c" ns2:_="">
     <xsd:import namespace="669b3db3-d5a4-4d30-a460-f1a7bf62d82d"/>
@@ -10904,22 +10919,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7010204-F282-4DB8-BAA4-6B407FACE274}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10935,21 +10952,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Guia_Api_Facturas_Generix_RCI.xlsx
+++ b/Guia_Api_Facturas_Generix_RCI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/icastro_generixgroup_com/Documents/Documentos/GitHub/RCI_Bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="687" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A683F7DC-63C3-4172-97EC-2DAEC55CFEC3}"/>
+  <xr:revisionPtr revIDLastSave="713" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A35BB364-036D-4E70-AFE8-EBEFFC9E07E1}"/>
   <bookViews>
-    <workbookView xWindow="14685" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14115" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema General" sheetId="1" r:id="rId1"/>
@@ -2988,9 +2988,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>249307</xdr:colOff>
+      <xdr:colOff>245497</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>396275</xdr:rowOff>
+      <xdr:rowOff>400085</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3967,8 +3967,8 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -6873,9 +6873,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25333C4E-FCEB-4BCB-A95F-5DF88E54B42A}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -9508,7 +9508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A21AC00-C6CA-49D8-AAB7-0299DE763BE4}">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
